--- a/格式代码保留/日语原文/Map036.xlsx
+++ b/格式代码保留/日语原文/Map036.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Worksheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" fullCalcOnLoad="1" calcCompleted="0" forceFullCalc="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,9 +20,10 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,9 +50,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -197,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,11 +415,11 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -454,11 +454,6 @@
           <t>女子トイレ</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>女生厕所</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,11 +461,6 @@
           <t>EV005</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EV005</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -478,11 +468,6 @@
           <t>EV007</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>EV007</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,11 +475,6 @@
           <t>EV008</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EV008</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -502,11 +482,6 @@
           <t>EV002</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EV002</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -514,11 +489,6 @@
           <t>EV001</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EV001</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -526,11 +496,6 @@
           <t>EV003</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EV003</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -538,11 +503,6 @@
           <t>EV004</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EV004</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -550,11 +510,6 @@
           <t>外池ハルコ</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>外池晴子</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -562,11 +517,6 @@
           <t>EV009</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EV009</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -574,11 +524,6 @@
           <t>EV010</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EV010</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -586,11 +531,6 @@
           <t>EV011</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>EV011</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -598,11 +538,6 @@
           <t>EV012</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EV012</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -610,11 +545,6 @@
           <t>EV013</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EV013</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -622,11 +552,6 @@
           <t>\NP[223]「こらっ、女子トイレに入ってきちゃダメでしょう！」</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>\NP[223]「喂，不可以进女生厕所！」</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -634,11 +559,6 @@
           <t>謝って出ていく</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>道歉并离开</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -646,11 +566,6 @@
           <t>…………</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>…………</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -658,23 +573,12 @@
           <t>\NP[12]「す、すみません……！」</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>\NP[12]「对、对不起……！」</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
           <t>\NP[223]「早く出ていきなさい。
 もう間違えたらダメよ」</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>\NP[223]「快出去。
-如果再进错就不行了」</t>
         </is>
       </c>
     </row>
@@ -686,12 +590,6 @@
 いけないわね」</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>\NP[223]「喂，你是不打算出去吗？
-这样的话，老师就要给你惩罚了」</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -701,23 +599,11 @@
 根性を叩き直してあげるわ！」</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>\NP[223]「不出去的话，
-我就认定你是为了不良目的才进来的。
-我会好好教训你的！」</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
           <t>\NP[223]「きゃっ……！」</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>\NP[223]「呀……！」</t>
         </is>
       </c>
     </row>
@@ -730,14 +616,6 @@
 クラスと名前を言いなさい！」</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>\NP[223]「咕，光是侵入女生厕所就是不可原谅的
-还抱住老师……
-这次可不会轻饶了！
-快告诉我班级和名字！」</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -746,24 +624,12 @@
 逃げるなら今しかない！）</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>\NP[12]（成功地阻止了老师的行动。
-现在只有逃跑了！）</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
           <t>\NP[223]「あっ、待ちなさいっ！
 もう、今度やったらただじゃ済まないわよ！」</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>\NP[223]「等等！
-下次再这样做，你可就没那么轻松了！」</t>
         </is>
       </c>
     </row>
@@ -775,13 +641,6 @@
 ペナルティで勝利ポイントが5減少した。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>成功逃脱了女教师外池晴子的追击。
-然而，之后\N[12]的行为被报告，
-导致胜利点减少了5点。</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -791,13 +650,6 @@
 変態男子生徒にやられてしまうなんて……」</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>\NP[223]「输了……
-呜，竟然被一个男生闯进女生厕所……
-太变态了……」</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -806,12 +658,6 @@
 逃げるしかない！）</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>\NP[12]（已经没有借口了，
-只能逃跑了！）</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -820,12 +666,6 @@
 もう、次こそは本当にただじゃ済まさないわよ！」</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>\NP[223]「等等！
-下次真的不会那么轻易放过你了！」</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -834,12 +674,6 @@
 でも、教師として、ここで引き下がるわけにはっ」</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>\NP[223]「哼，果然厉害……竟然把老师逼到这个地步。
-但是，作为教师，我不能在这里退缩」</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -847,21 +681,11 @@
           <t>言い訳をする</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>找借口</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
           <t>逃げる</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>逃跑</t>
         </is>
       </c>
     </row>
@@ -871,13 +695,6 @@
           <t>\NP[12]「すみません先生、
 そういうつもりはなく、うっかり入ってしまっただけで
 すぐに出ていきますのでっ」</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>\NP[12]「对不起老师，
-我并没有那个意思，只是不小心进去了
-我马上就出去的」</t>
         </is>
       </c>
     </row>
@@ -890,14 +707,6 @@
 今回は信じてあげるわ」</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>\NP[223]「是真的吗？
-虽然之前警告过你还不出去，有点可疑……
-唉，真是的……鉴于你战胜了老师，
-这次我就相信你吧」</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -908,14 +717,6 @@
 警察沙汰になるんだから。分かった？」</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>\NP[223]「但是，以后要小心了。
-这里是学校，虽然老师还听你解释，
-但是如果在外面闯进女生厕所
-就会变成警察的事情了。明白吗？」</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -923,11 +724,6 @@
           <t>\NP[12]「はい、すみませんでした」</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>\NP[12]「是的，对不起」</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -936,21 +732,11 @@
 \N[12]は無事解放された……</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>被女教师外池晴子训斥后，\N[12]被顺利释放……</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
           <t>\NP[12]「うぐっ……！」</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>\NP[12]「呃……！」</t>
         </is>
       </c>
     </row>
@@ -963,13 +749,6 @@
 先生に楯突こうだなんて無駄なのよ」</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>\NP[223]「怎么样？体会到了女教师和男生学生的实力差距了吗？
-你这种不成熟的男生，
-想挑战老师简直是徒劳无功」</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -980,25 +759,11 @@
 分かっているの！？」</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>\NP[223]「话说回来……竟然抱住我！
-这完全是猥亵！
-如果不是在学校里，
-这就是即刻逮捕的案件，
-你明白吗！？」</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
           <t>\NP[12]「う、ううっ……」</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>\NP[12]「呜、呜呜……」</t>
         </is>
       </c>
     </row>
@@ -1008,13 +773,6 @@
           <t>\NP[223]「これはもう職員会議にかけなければいけないわね。
 自分がどれだけ女の尊厳を傷つける行為をしたか
 たっぷり後悔しなさい！」</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>\NP[223]「这件事必须要上报给职员会议。
-你做了多么伤害女性尊严的事情，
-要好好后悔！」</t>
         </is>
       </c>
     </row>
@@ -1027,13 +785,6 @@
 争奪戦は自動的に敗退となり、ボクシング部は潰された。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>\N[12]因为闯入女生厕所和对女性教师进行猥亵行为，被处以长期停学处分……
-虽然勉强避免了退学，
-但争夺战自动失败，拳击部也被解散了。</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1041,13 +792,6 @@
           <t>\N[12]は女教師に抱きついたときの感触を思い出して
 毎日オナニーを繰り返しながら
 虚しく停学期間を過ごすことになるのだった……</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>\N[12]回想起抱住女教师时的触感，
-每天都在重复自慰的同时
-度过了空虚的停学期间……</t>
         </is>
       </c>
     </row>
@@ -1060,13 +804,6 @@
 先生に楯突こうだなんて無駄なのよ」</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>\NP[223]「怎么样？体会到了女教师和男生学生的实力差距了吗？
-你这种不成熟的男生，
-想挑战老师简直是徒劳无功」</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1077,13 +814,6 @@
 いけないわね」</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>\NP[223]「话说回来……不止一次，两次闯入教职员用女生厕所……
-这次，必须彻底给你一个教训
-」</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1094,14 +824,6 @@
 今日は説教2時間コースよ、覚悟なさい！」</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>\NP[223]「男生闯入女生厕所，
-你知道给女性带来多大的恐惧吗？
-看来你还没有理解！
-今天就是2小时的训诫课程，做好心理准备！」</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1109,12 +831,6 @@
           <t>\N[12]は女教師の外池ハルコに敗れ、
 指導室でみっちりと説教された……
 2時間経過。</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>\N[12]被女教师外池晴子打败，在指导室里受到了严厉的训斥……
-2小时过去了。</t>
         </is>
       </c>
     </row>
@@ -1127,13 +843,6 @@
 生徒以上にしっかりと護身術を教えられているのよ」</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>\NP[223]「抵抗到这个地步就结束了吗。
-你以为只是因为对手是女性，就能应付过去吗？
-这个学校的女教师们都比学生们更加严格地教授自卫术」</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1141,13 +850,6 @@
           <t>\NP[223]「あなたのような未熟な男子生徒に
 先生をどうにかすることなんてできないわ。
 思い知ったかしら？」</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>\NP[223]「像你这样不成熟的男生
-是无法对付老师的。
-明白了吗？」</t>
         </is>
       </c>
     </row>
@@ -1160,14 +862,6 @@
 しごいてあげるから、覚悟することね」</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>\NP[223]「好了，接下来我会在指导室里
-好好地给你上一课。
-直到你不再有那些下流的想法，
-我会一直教训你，做好心理准备」</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1177,24 +871,8 @@
 1時間経過。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>\N[12]被女教师外池晴子打败，在指导室里受到了严厉的训斥……
-1小时过去了。</t>
-        </is>
-      </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="default" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>